--- a/laboratory/data/reagents_template.xlsx
+++ b/laboratory/data/reagents_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V-284\dev\laboratory\laboratory\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V-284\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044D9A5B-F5A3-454B-9B63-9227FF63347A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537537D0-6393-4606-B538-04786C1674D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
